--- a/Book/estructuras/comparacion-textos.xlsx
+++ b/Book/estructuras/comparacion-textos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Documents\GitHub\TFG\Book\estructuras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738F29BD-D4EF-4ECA-BBF5-A1B127D1A86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F73C51-4EBC-491E-A017-6DFDCCA713B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B3C842C7-312F-420C-897A-6BF41CA87685}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="34">
   <si>
     <t>MADRID</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>\"It\u2019s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in </t>
   </si>
 </sst>
 </file>
@@ -224,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,6 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,6 +269,411 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB740FA4-6593-45F6-AD9B-76560792F52C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8667750" y="1362075"/>
+          <a:ext cx="2028825" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector recto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5291A1DA-838F-4634-B596-109A74898AC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8696325" y="1343025"/>
+          <a:ext cx="1952625" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9FF0D7-5198-494E-9307-D1BAB8EB0037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8696325" y="1771650"/>
+          <a:ext cx="1952625" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F9EF0BE-98C9-41B6-A20D-0949F7D66873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8648700" y="1781175"/>
+          <a:ext cx="2028825" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB171051-0FDB-46C4-B198-39F47EEBC9DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8667750" y="2419350"/>
+          <a:ext cx="2028825" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFE13EE-F506-4C24-82C4-C20420ADB21A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8648700" y="2838450"/>
+          <a:ext cx="2028825" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector recto 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB407270-C7B0-4C7A-8EBB-69C787A12688}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8705850" y="2390775"/>
+          <a:ext cx="1952625" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector recto 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DCCE13D-A89D-4CFF-BBD2-D62A019AF9FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677275" y="2800350"/>
+          <a:ext cx="1952625" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FC3966-5C07-40AB-AFF7-D56C9909898B}">
-  <dimension ref="A8:AJ17"/>
+  <dimension ref="A8:AN27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,16 +1004,23 @@
     <col min="24" max="24" width="1.7109375" customWidth="1"/>
     <col min="25" max="25" width="7.28515625" customWidth="1"/>
     <col min="26" max="26" width="11" customWidth="1"/>
-    <col min="27" max="28" width="12.28515625" customWidth="1"/>
-    <col min="29" max="29" width="0.85546875" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" customWidth="1"/>
-    <col min="32" max="32" width="10" customWidth="1"/>
-    <col min="33" max="33" width="0.85546875" customWidth="1"/>
-    <col min="36" max="36" width="12.7109375" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" customWidth="1"/>
+    <col min="31" max="31" width="0.85546875" customWidth="1"/>
+    <col min="32" max="32" width="6.85546875" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" customWidth="1"/>
+    <col min="35" max="35" width="7" customWidth="1"/>
+    <col min="36" max="36" width="0.85546875" customWidth="1"/>
+    <col min="37" max="37" width="11" customWidth="1"/>
+    <col min="38" max="38" width="11.28515625" customWidth="1"/>
+    <col min="39" max="39" width="7" customWidth="1"/>
+    <col min="40" max="40" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,13 +1051,13 @@
       <c r="J8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="10" t="s">
         <v>2</v>
       </c>
       <c r="P8" s="8"/>
@@ -670,37 +1080,45 @@
       <c r="W8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="7" t="s">
+      <c r="AA8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AA8" s="7" t="s">
+      <c r="AB8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AB8" s="7" t="s">
+      <c r="AC8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="7" t="s">
+      <c r="AD8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AE8" s="7" t="s">
+      <c r="AG8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AF8" s="7" t="s">
+      <c r="AH8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="7" t="s">
+      <c r="AI8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AI8" s="7" t="s">
+      <c r="AL8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AJ8" s="7" t="s">
+      <c r="AM8" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="AN8" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -760,37 +1178,44 @@
       <c r="W9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Z9" s="7" t="s">
+      <c r="AA9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA9" s="7" t="s">
+      <c r="AB9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AB9" s="7" t="s">
+      <c r="AC9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AC9" s="6"/>
       <c r="AD9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AE9" s="7" t="s">
+      <c r="AG9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AF9" s="7" t="s">
+      <c r="AH9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="5" t="s">
+      <c r="AI9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AI9" s="5" t="s">
+      <c r="AL9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AJ9" s="5" t="s">
-        <v>7</v>
+      <c r="AM9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN9" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -850,37 +1275,44 @@
       <c r="W10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="AA10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AA10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC10" s="6"/>
+      <c r="AB10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="AD10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG10" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG10" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="AH10" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="AK10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN10" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -928,37 +1360,44 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="Z11" s="5" t="s">
+      <c r="AA11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AA11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="12" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,37 +1428,44 @@
       <c r="J12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="AA12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ12" s="5" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="13" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1050,13 +1496,13 @@
       <c r="J13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="N13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="P13" s="8"/>
@@ -1079,37 +1525,44 @@
       <c r="W13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z13" s="5" t="s">
+      <c r="AA13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AA13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="14" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1169,37 +1622,44 @@
       <c r="W14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Z14" s="5" t="s">
+      <c r="AA14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AA14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="15" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M15" s="9" t="s">
         <v>33</v>
       </c>
@@ -1227,31 +1687,44 @@
       <c r="W15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="AA15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
     </row>
-    <row r="16" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1269,11 +1742,393 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
+      <c r="AA16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN16" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="27:40" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="27:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN18" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="27:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN19" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="27:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN20" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="27:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="27:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN22" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="27:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN23" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="27:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="27:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN25" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="27:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN26" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="27:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
